--- a/33 Buttons for Toggling Visuals, Filter Panes, and other Objects/Buttons for Toggling Visuals, Filter Panes, and other Objects Sample Input.xlsx
+++ b/33 Buttons for Toggling Visuals, Filter Panes, and other Objects/Buttons for Toggling Visuals, Filter Panes, and other Objects Sample Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/17 Table and Matrix Visuals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/33 Buttons for Toggling Visuals, Filter Panes, and other Objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{76261567-65F3-45CA-928F-9B7D06AD0F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C0ABEC-06B2-4F1F-9023-2A2327811667}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35321B79-B1B8-4A6E-A212-F990A2C6B956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7C716D9C-3C92-4378-A483-042FAB98C08E}"/>
+    <workbookView xWindow="-13050" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{8F64C29F-3705-49E8-B3D1-FA0385664CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Transaction ID</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Sales representative</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Sales amount</t>
   </si>
   <si>
-    <t>Product letter</t>
+    <t>Product name</t>
   </si>
   <si>
     <t>Product details</t>
@@ -65,49 +65,40 @@
     <t>Profit Option 2</t>
   </si>
   <si>
-    <t>Profit group</t>
-  </si>
-  <si>
     <t>Person A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Product A</t>
   </si>
   <si>
     <t>Laptop</t>
   </si>
   <si>
-    <t>High (above 100 €)</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>Product B</t>
   </si>
   <si>
     <t>Wireless mouse</t>
   </si>
   <si>
-    <t>Medium (10 - 100 €)</t>
-  </si>
-  <si>
     <t>Person B</t>
   </si>
   <si>
     <t>Person C</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Product C</t>
   </si>
   <si>
     <t>USB stick 128GB</t>
-  </si>
-  <si>
-    <t>Low (0 - 10 €)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,15 +134,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -196,6 +272,61 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -276,34 +407,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -340,141 +443,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -489,19 +457,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F28475C3-A0C8-483A-9336-2600E9CCE180}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:J11" xr:uid="{F28475C3-A0C8-483A-9336-2600E9CCE180}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{602D9F0D-E938-4046-AAAB-E25381CCD21C}" name="Transaction ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6CF8C238-50D1-4A76-AB86-63BDE9D1BF6A}" name="Sales representative" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DB186B6C-7026-4111-8000-BC4D4AA4A91B}" name="Year" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{400E5754-E9A2-4E73-9E7F-899A569640B1}" name="Sales amount" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{269CEA8B-22C8-488E-A8DD-AE609897450B}" name="Product letter" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7CE807BB-F864-43AE-A19B-EEA93F299922}" name="Product details" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{597FFE94-9E14-4F11-97F3-A2BD8A73EC56}" name="Product Cost" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E120B5C6-A3F8-44CA-91CA-1BD9D9F72AC7}" name="Profit" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{93FD67B2-95C1-4E27-93C6-DBFD14C14CE0}" name="Profit Option 2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{FEB45205-CD5E-4731-9F72-9A1C53FA9F1C}" name="Profit group" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B4759B7-052D-45C7-90EA-0AE790B6A016}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I11" xr:uid="{4B4759B7-052D-45C7-90EA-0AE790B6A016}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{83177DC9-1451-48BD-A9D5-D4FF06F39B27}" name="Transaction ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{4381C955-A4AE-4ED8-BDA7-D37E78FBE5DE}" name="Sales representative" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8EAF6583-B4BF-4DBD-803A-A2A2AADCAC0A}" name="Date" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{453FF04A-7DC4-4029-BF95-7B9CE848E149}" name="Sales amount" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{849FA00D-17E4-4EE3-A06D-44C67DAC90CD}" name="Product name" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{0776A64A-534D-4026-A258-DAC458E739A4}" name="Product details" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{301CA134-6C4A-41E9-AD0F-5906BA38A1C7}" name="Product Cost" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D5D108AD-957F-4E2E-9420-EC7B3D4D296A}" name="Profit" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{293F0544-7841-4F1F-90DE-FC8559575672}" name="Profit Option 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -803,36 +770,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CC5379-0426-441D-9825-810A8E13265B}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90B6240-7BF5-4BE5-8C07-E0BD243584D0}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -841,337 +809,304 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45061</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2100</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>1850</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>250</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="5">
         <v>250</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45058</v>
+      </c>
+      <c r="D3" s="5">
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5">
         <v>30</v>
       </c>
-      <c r="H3" s="1">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
+      <c r="H3" s="5">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D4" s="2">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45063</v>
+      </c>
+      <c r="D4" s="5">
         <v>2100</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>1850</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>250</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>250</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45058</v>
+      </c>
+      <c r="D5" s="5">
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
+      <c r="H5" s="5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45062</v>
+      </c>
+      <c r="D6" s="5">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45063</v>
+      </c>
+      <c r="D7" s="5">
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5">
         <v>30</v>
       </c>
-      <c r="H7" s="1">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
+      <c r="H7" s="5">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45065</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2100</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>1850</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>250</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>250</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45060</v>
+      </c>
+      <c r="D9" s="5">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
         <v>10</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45064</v>
+      </c>
+      <c r="D10" s="5">
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="2">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45058</v>
+      </c>
+      <c r="D11" s="5">
         <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5">
         <v>30</v>
       </c>
-      <c r="H11" s="1">
-        <v>15</v>
-      </c>
-      <c r="I11" s="2">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
+      <c r="H11" s="5">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
